--- a/Dokumente/RGB Spectrum.xlsx
+++ b/Dokumente/RGB Spectrum.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>blue</t>
   </si>
@@ -36,12 +38,51 @@
   <si>
     <t>red</t>
   </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>10 - 12</t>
+  </si>
+  <si>
+    <t>08 - 10</t>
+  </si>
+  <si>
+    <t>12 - 14</t>
+  </si>
+  <si>
+    <t>14 - 16</t>
+  </si>
+  <si>
+    <t>16 - 18</t>
+  </si>
+  <si>
+    <t>18 - 20</t>
+  </si>
+  <si>
+    <t>Donnerst.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +97,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -88,13 +157,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00FF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,9 +229,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2099,1604 +2225,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Grün</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00FF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$6:$IW$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F51-4B28-9085-BCDE156C6BF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Rot</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$7:$IW$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3F51-4B28-9085-BCDE156C6BF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3709,7 +2237,1624 @@
         <c:overlap val="-27"/>
         <c:axId val="1669611872"/>
         <c:axId val="1650708720"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Grün</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="00FF00"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$B$6:$IW$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="256"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3F51-4B28-9085-BCDE156C6BF9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Rot</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$B$7:$IW$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="256"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3F51-4B28-9085-BCDE156C6BF9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="1669611872"/>
@@ -6239,7 +6384,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-B9A5-4031-BD84-3D622E9453C5}"/>
                   </c:ext>
@@ -8777,7 +8922,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F826-42BE-8F3F-85A356AE1FAC}"/>
                   </c:ext>
@@ -14726,1606 +14871,7 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Grün</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00FF00"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$2:$IW$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C854-4E5B-83BA-18792A3E53E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Rot</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$3:$IW$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C854-4E5B-83BA-18792A3E53E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -16337,6 +14883,1624 @@
         <c:overlap val="-27"/>
         <c:axId val="1669611872"/>
         <c:axId val="1650708720"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Grün</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="00FF00"/>
+                  </a:solidFill>
+                  <a:ln w="12700">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$B$2:$IW$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="256"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C854-4E5B-83BA-18792A3E53E1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Rot</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:ln w="12700">
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet3!$B$3:$IW$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="256"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C854-4E5B-83BA-18792A3E53E1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="1669611872"/>
@@ -18870,7 +19034,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0DE4-4EED-B610-62618CBE6F68}"/>
                   </c:ext>
@@ -21408,7 +21572,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-85D1-40A9-916D-98124B0A46D1}"/>
                   </c:ext>
@@ -31131,7 +31295,7 @@
   <dimension ref="A1:IX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="AA1" sqref="AA1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33469,8 +33633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38117,4 +38281,917 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="A21:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2">
+        <v>150</v>
+      </c>
+      <c r="C1" s="2">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2">
+        <v>205</v>
+      </c>
+      <c r="E1" s="2">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2">
+        <v>116</v>
+      </c>
+      <c r="G1" s="2">
+        <v>106</v>
+      </c>
+      <c r="H1" s="2">
+        <v>198</v>
+      </c>
+      <c r="I1" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2">
+        <v>193</v>
+      </c>
+      <c r="C2" s="2">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2">
+        <v>237</v>
+      </c>
+      <c r="G2" s="2">
+        <v>209</v>
+      </c>
+      <c r="H2" s="2">
+        <v>379</v>
+      </c>
+      <c r="I2" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2">
+        <v>189</v>
+      </c>
+      <c r="C3" s="2">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2">
+        <v>211</v>
+      </c>
+      <c r="E3" s="2">
+        <v>165</v>
+      </c>
+      <c r="F3" s="2">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2">
+        <v>163</v>
+      </c>
+      <c r="H3" s="2">
+        <v>154</v>
+      </c>
+      <c r="I3" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2">
+        <v>147</v>
+      </c>
+      <c r="D4" s="2">
+        <v>176</v>
+      </c>
+      <c r="E4" s="2">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2">
+        <v>186</v>
+      </c>
+      <c r="G4" s="2">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2">
+        <v>113</v>
+      </c>
+      <c r="I4" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2">
+        <v>106</v>
+      </c>
+      <c r="G5" s="2">
+        <v>86</v>
+      </c>
+      <c r="H5" s="2">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2">
+        <v>103</v>
+      </c>
+      <c r="D6" s="2">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2">
+        <v>110</v>
+      </c>
+      <c r="H6" s="2">
+        <v>87</v>
+      </c>
+      <c r="I6" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2">
+        <v>163</v>
+      </c>
+      <c r="C7" s="2">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2">
+        <v>132</v>
+      </c>
+      <c r="F7" s="2">
+        <v>140</v>
+      </c>
+      <c r="G7" s="2">
+        <v>162</v>
+      </c>
+      <c r="H7" s="2">
+        <v>194</v>
+      </c>
+      <c r="I7" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2">
+        <v>121</v>
+      </c>
+      <c r="F8" s="2">
+        <v>122</v>
+      </c>
+      <c r="G8" s="2">
+        <v>146</v>
+      </c>
+      <c r="H8" s="2">
+        <v>162</v>
+      </c>
+      <c r="I8" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>84</v>
+      </c>
+      <c r="B9" s="2">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2">
+        <v>111</v>
+      </c>
+      <c r="E9" s="2">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2">
+        <v>125</v>
+      </c>
+      <c r="G9" s="2">
+        <v>109</v>
+      </c>
+      <c r="H9" s="2">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>176</v>
+      </c>
+      <c r="B11" s="3">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3">
+        <v>186</v>
+      </c>
+      <c r="D11" s="3">
+        <v>117</v>
+      </c>
+      <c r="E11" s="3">
+        <v>113</v>
+      </c>
+      <c r="F11" s="3">
+        <v>138</v>
+      </c>
+      <c r="G11" s="3">
+        <v>122</v>
+      </c>
+      <c r="H11" s="3">
+        <v>150</v>
+      </c>
+      <c r="I11" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3">
+        <v>106</v>
+      </c>
+      <c r="D12" s="3">
+        <v>86</v>
+      </c>
+      <c r="E12" s="3">
+        <v>88</v>
+      </c>
+      <c r="F12" s="3">
+        <v>90</v>
+      </c>
+      <c r="G12" s="3">
+        <v>122</v>
+      </c>
+      <c r="H12" s="3">
+        <v>193</v>
+      </c>
+      <c r="I12" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3">
+        <v>110</v>
+      </c>
+      <c r="E13" s="3">
+        <v>87</v>
+      </c>
+      <c r="F13" s="3">
+        <v>90</v>
+      </c>
+      <c r="G13" s="3">
+        <v>103</v>
+      </c>
+      <c r="H13" s="3">
+        <v>189</v>
+      </c>
+      <c r="I13" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>146</v>
+      </c>
+      <c r="B14" s="3">
+        <v>132</v>
+      </c>
+      <c r="C14" s="3">
+        <v>140</v>
+      </c>
+      <c r="D14" s="3">
+        <v>162</v>
+      </c>
+      <c r="E14" s="3">
+        <v>194</v>
+      </c>
+      <c r="F14" s="3">
+        <v>166</v>
+      </c>
+      <c r="G14" s="3">
+        <v>104</v>
+      </c>
+      <c r="H14" s="3">
+        <v>115</v>
+      </c>
+      <c r="I14" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>92</v>
+      </c>
+      <c r="B15" s="3">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3">
+        <v>122</v>
+      </c>
+      <c r="D15" s="3">
+        <v>146</v>
+      </c>
+      <c r="E15" s="3">
+        <v>162</v>
+      </c>
+      <c r="F15" s="3">
+        <v>124</v>
+      </c>
+      <c r="G15" s="3">
+        <v>104</v>
+      </c>
+      <c r="H15" s="3">
+        <v>108</v>
+      </c>
+      <c r="I15" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3">
+        <v>125</v>
+      </c>
+      <c r="D16" s="3">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3">
+        <v>144</v>
+      </c>
+      <c r="F16" s="3">
+        <v>140</v>
+      </c>
+      <c r="G16" s="3">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3">
+        <v>102</v>
+      </c>
+      <c r="I16" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>205</v>
+      </c>
+      <c r="B17" s="3">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3">
+        <v>106</v>
+      </c>
+      <c r="E17" s="3">
+        <v>198</v>
+      </c>
+      <c r="F17" s="3">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3">
+        <v>170</v>
+      </c>
+      <c r="H17" s="3">
+        <v>163</v>
+      </c>
+      <c r="I17" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3">
+        <v>237</v>
+      </c>
+      <c r="D18" s="3">
+        <v>209</v>
+      </c>
+      <c r="E18" s="3">
+        <v>379</v>
+      </c>
+      <c r="F18" s="3">
+        <v>270</v>
+      </c>
+      <c r="G18" s="3">
+        <v>99</v>
+      </c>
+      <c r="H18" s="3">
+        <v>97</v>
+      </c>
+      <c r="I18" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>211</v>
+      </c>
+      <c r="B19" s="3">
+        <v>165</v>
+      </c>
+      <c r="C19" s="3">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3">
+        <v>163</v>
+      </c>
+      <c r="E19" s="3">
+        <v>154</v>
+      </c>
+      <c r="F19" s="3">
+        <v>149</v>
+      </c>
+      <c r="G19" s="3">
+        <v>84</v>
+      </c>
+      <c r="H19" s="3">
+        <v>94</v>
+      </c>
+      <c r="I19" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>162</v>
+      </c>
+      <c r="B21" s="4">
+        <v>194</v>
+      </c>
+      <c r="C21" s="4">
+        <v>166</v>
+      </c>
+      <c r="D21" s="4">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4">
+        <v>115</v>
+      </c>
+      <c r="F21" s="4">
+        <v>147</v>
+      </c>
+      <c r="G21" s="4">
+        <v>176</v>
+      </c>
+      <c r="H21" s="4">
+        <v>104</v>
+      </c>
+      <c r="I21" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>146</v>
+      </c>
+      <c r="B22" s="4">
+        <v>162</v>
+      </c>
+      <c r="C22" s="4">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4">
+        <v>104</v>
+      </c>
+      <c r="E22" s="4">
+        <v>108</v>
+      </c>
+      <c r="F22" s="4">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4">
+        <v>77</v>
+      </c>
+      <c r="H22" s="4">
+        <v>92</v>
+      </c>
+      <c r="I22" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>109</v>
+      </c>
+      <c r="B23" s="4">
+        <v>144</v>
+      </c>
+      <c r="C23" s="4">
+        <v>140</v>
+      </c>
+      <c r="D23" s="4">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4">
+        <v>102</v>
+      </c>
+      <c r="F23" s="4">
+        <v>103</v>
+      </c>
+      <c r="G23" s="4">
+        <v>57</v>
+      </c>
+      <c r="H23" s="4">
+        <v>84</v>
+      </c>
+      <c r="I23" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4">
+        <v>198</v>
+      </c>
+      <c r="C24" s="4">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4">
+        <v>170</v>
+      </c>
+      <c r="E24" s="4">
+        <v>163</v>
+      </c>
+      <c r="F24" s="4">
+        <v>112</v>
+      </c>
+      <c r="G24" s="4">
+        <v>146</v>
+      </c>
+      <c r="H24" s="4">
+        <v>132</v>
+      </c>
+      <c r="I24" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>209</v>
+      </c>
+      <c r="B25" s="4">
+        <v>379</v>
+      </c>
+      <c r="C25" s="4">
+        <v>270</v>
+      </c>
+      <c r="D25" s="4">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4">
+        <v>97</v>
+      </c>
+      <c r="F25" s="4">
+        <v>97</v>
+      </c>
+      <c r="G25" s="4">
+        <v>92</v>
+      </c>
+      <c r="H25" s="4">
+        <v>121</v>
+      </c>
+      <c r="I25" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>163</v>
+      </c>
+      <c r="B26" s="4">
+        <v>154</v>
+      </c>
+      <c r="C26" s="4">
+        <v>149</v>
+      </c>
+      <c r="D26" s="4">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4">
+        <v>94</v>
+      </c>
+      <c r="F26" s="4">
+        <v>85</v>
+      </c>
+      <c r="G26" s="4">
+        <v>111</v>
+      </c>
+      <c r="H26" s="4">
+        <v>98</v>
+      </c>
+      <c r="I26" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>117</v>
+      </c>
+      <c r="B27" s="4">
+        <v>113</v>
+      </c>
+      <c r="C27" s="4">
+        <v>138</v>
+      </c>
+      <c r="D27" s="4">
+        <v>122</v>
+      </c>
+      <c r="E27" s="4">
+        <v>150</v>
+      </c>
+      <c r="F27" s="4">
+        <v>123</v>
+      </c>
+      <c r="G27" s="4">
+        <v>205</v>
+      </c>
+      <c r="H27" s="4">
+        <v>85</v>
+      </c>
+      <c r="I27" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>86</v>
+      </c>
+      <c r="B28" s="4">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4">
+        <v>90</v>
+      </c>
+      <c r="D28" s="4">
+        <v>122</v>
+      </c>
+      <c r="E28" s="4">
+        <v>193</v>
+      </c>
+      <c r="F28" s="4">
+        <v>98</v>
+      </c>
+      <c r="G28" s="4">
+        <v>85</v>
+      </c>
+      <c r="H28" s="4">
+        <v>85</v>
+      </c>
+      <c r="I28" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4">
+        <v>103</v>
+      </c>
+      <c r="E29" s="4">
+        <v>189</v>
+      </c>
+      <c r="F29" s="4">
+        <v>140</v>
+      </c>
+      <c r="G29" s="4">
+        <v>211</v>
+      </c>
+      <c r="H29" s="4">
+        <v>165</v>
+      </c>
+      <c r="I29" s="4">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dokumente/RGB Spectrum.xlsx
+++ b/Dokumente/RGB Spectrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF00FF00"/>
-      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3065,7 +3065,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$7:$IW$7</c15:sqref>
@@ -3846,7 +3846,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3F51-4B28-9085-BCDE156C6BF9}"/>
                   </c:ext>
@@ -8985,6 +8985,6006 @@
         <a:srgbClr val="0000FF">
           <a:alpha val="34000"/>
         </a:srgbClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Histogramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$IW$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB80-4FD1-B341-DB9C095517CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="837413007"/>
+        <c:axId val="928347151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="837413007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928347151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928347151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837413007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00FF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$IW$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6C0-4B98-BB87-FC5F7BBAC5EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="923881903"/>
+        <c:axId val="928350607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="923881903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928350607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928350607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923881903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$IW$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAD5-46DE-BE13-5C58017CAE19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="923153391"/>
+        <c:axId val="928355791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="923153391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928355791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928355791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923153391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Histogramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$IW$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1362-4028-BF9F-F09DB34CD664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="923879407"/>
+        <c:axId val="921103887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="923879407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921103887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="921103887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923879407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00FF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$IW$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C053-40A4-937D-567D4D05261D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="837417583"/>
+        <c:axId val="921099567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="837417583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921099567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="921099567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837417583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$7:$IW$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D57C-4F35-858F-85F28BC88BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="992046623"/>
+        <c:axId val="829527487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="992046623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829527487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="829527487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992046623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -15711,7 +21711,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$3:$IW$3</c15:sqref>
@@ -16492,7 +22492,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C854-4E5B-83BA-18792A3E53E1}"/>
                   </c:ext>
@@ -21779,6 +27779,246 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -24150,6 +30390,3024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -28418,7 +37676,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28628,6 +37886,222 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>129268</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>31297</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B347B365-F20A-4EDD-8A7D-0AA1606A7FD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BEF7E3-04BD-49D4-9ADB-2CB437162FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>124558</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>115764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EEDB62-06C8-4714-BE0B-67E6062E4A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>120895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>189035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>76933</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF94754-5FE4-4904-8BA5-BA868A128D1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62948</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC972BB3-43F4-4E4F-9B27-C64DAB893700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>62119</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>94422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>62119</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>170622</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC4B49C-F99A-4075-958F-1F7352721E7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31294,7 +40768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AC3"/>
     </sheetView>
   </sheetViews>
@@ -33633,11 +43107,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="Y23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:IW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="86" width="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="98" width="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="104" width="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="3" bestFit="1" customWidth="1"/>
+    <col min="108" max="110" width="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="3" bestFit="1" customWidth="1"/>
+    <col min="112" max="135" width="2" bestFit="1" customWidth="1"/>
+    <col min="136" max="154" width="3" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="2" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="3" bestFit="1" customWidth="1"/>
+    <col min="157" max="158" width="2" bestFit="1" customWidth="1"/>
+    <col min="159" max="161" width="3" bestFit="1" customWidth="1"/>
+    <col min="162" max="218" width="2" bestFit="1" customWidth="1"/>
+    <col min="219" max="220" width="3" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="2" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="3" bestFit="1" customWidth="1"/>
+    <col min="223" max="224" width="2" bestFit="1" customWidth="1"/>
+    <col min="225" max="248" width="3" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="2" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="3" bestFit="1" customWidth="1"/>
+    <col min="251" max="257" width="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -38287,7 +47788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
